--- a/06_Statistical_Preparation/KFactors_by_coupling/woRHC/tau_tau.xlsx
+++ b/06_Statistical_Preparation/KFactors_by_coupling/woRHC/tau_tau.xlsx
@@ -461,25 +461,25 @@
         <v>0.25</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04044783230109576</v>
+        <v>0.0004425917103382563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1045108377270065</v>
+        <v>0.0004624487404803749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1779216021492246</v>
+        <v>0.0004922456954451093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4066889632107024</v>
+        <v>0.0004920847268673355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5529119318181819</v>
+        <v>0.0004723011363636364</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9031296572280179</v>
+        <v>0.0004087928464977645</v>
       </c>
       <c r="H2" t="n">
-        <v>1.156327543424318</v>
+        <v>0.0003410049627791564</v>
       </c>
     </row>
     <row r="3">
@@ -487,25 +487,25 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03585040495474035</v>
+        <v>0.007224868985231061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08974809607498536</v>
+        <v>0.007457527826596369</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1904994504823544</v>
+        <v>0.007833679325925021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3730211817168338</v>
+        <v>0.007785953177257524</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6111505681818182</v>
+        <v>0.007361505681818182</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8489816194734228</v>
+        <v>0.006696472925981123</v>
       </c>
       <c r="H3" t="n">
-        <v>1.086848635235732</v>
+        <v>0.005490694789081887</v>
       </c>
     </row>
     <row r="4">
@@ -513,25 +513,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09447355883754167</v>
+        <v>0.1143401619818961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1291154071470416</v>
+        <v>0.120796719390744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2006349981682745</v>
+        <v>0.1267554035901819</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3360089186176143</v>
+        <v>0.1266220735785953</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5344460227272727</v>
+        <v>0.1198863636363637</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6830601092896175</v>
+        <v>0.1061102831594635</v>
       </c>
       <c r="H4" t="n">
-        <v>0.804590570719603</v>
+        <v>0.08740694789081886</v>
       </c>
     </row>
     <row r="5">
@@ -539,25 +539,25 @@
         <v>1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4742734635540733</v>
+        <v>0.5724154359218675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4919742237844171</v>
+        <v>0.6115992970123023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5225302234705091</v>
+        <v>0.6335327878861887</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5917502787068004</v>
+        <v>0.6494983277591972</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7091619318181819</v>
+        <v>0.6100852272727273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8320914058618977</v>
+        <v>0.5375062096373572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8095533498759305</v>
+        <v>0.4362282878411911</v>
       </c>
     </row>
     <row r="6">
@@ -591,25 +591,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1.585278704144831</v>
+        <v>1.829204383039542</v>
       </c>
       <c r="C7" t="n">
-        <v>1.583479789103691</v>
+        <v>1.932630345635618</v>
       </c>
       <c r="D7" t="n">
-        <v>1.605812675540359</v>
+        <v>2.008792282329955</v>
       </c>
       <c r="E7" t="n">
-        <v>1.601783723522854</v>
+        <v>2.018729096989966</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5703125</v>
+        <v>1.905894886363636</v>
       </c>
       <c r="G7" t="n">
-        <v>1.509190263288624</v>
+        <v>1.692498758072528</v>
       </c>
       <c r="H7" t="n">
-        <v>1.413151364764268</v>
+        <v>1.385235732009926</v>
       </c>
     </row>
     <row r="8">
@@ -617,25 +617,25 @@
         <v>2.5</v>
       </c>
       <c r="B8" t="n">
-        <v>4.099571224392568</v>
+        <v>4.454502143878037</v>
       </c>
       <c r="C8" t="n">
-        <v>4.155828939660223</v>
+        <v>4.699472759226714</v>
       </c>
       <c r="D8" t="n">
-        <v>4.209305165465869</v>
+        <v>4.952985712541214</v>
       </c>
       <c r="E8" t="n">
-        <v>4.031215161649944</v>
+        <v>4.958751393534002</v>
       </c>
       <c r="F8" t="n">
-        <v>3.718039772727273</v>
+        <v>4.655539772727272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.299056135121709</v>
+        <v>4.18628912071535</v>
       </c>
       <c r="H8" t="n">
-        <v>2.783498759305211</v>
+        <v>3.406327543424318</v>
       </c>
     </row>
     <row r="9">
@@ -643,25 +643,25 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>8.716055264411624</v>
+        <v>9.163887565507384</v>
       </c>
       <c r="C9" t="n">
-        <v>8.974809607498537</v>
+        <v>9.648506151142357</v>
       </c>
       <c r="D9" t="n">
-        <v>8.887532055195994</v>
+        <v>10.28697032604714</v>
       </c>
       <c r="E9" t="n">
-        <v>8.78483835005574</v>
+        <v>10.33444816053512</v>
       </c>
       <c r="F9" t="n">
-        <v>8.046875</v>
+        <v>9.7265625</v>
       </c>
       <c r="G9" t="n">
-        <v>6.89518132141083</v>
+        <v>8.628912071535023</v>
       </c>
       <c r="H9" t="n">
-        <v>5.65074441687345</v>
+        <v>7.096774193548388</v>
       </c>
     </row>
     <row r="10">
@@ -669,25 +669,25 @@
         <v>3.5</v>
       </c>
       <c r="B10" t="n">
-        <v>16.26965221534064</v>
+        <v>17.09623630300143</v>
       </c>
       <c r="C10" t="n">
-        <v>16.48506151142355</v>
+        <v>17.69771528998243</v>
       </c>
       <c r="D10" t="n">
-        <v>17.26706557577238</v>
+        <v>18.91561851263891</v>
       </c>
       <c r="E10" t="n">
-        <v>16.80490523968785</v>
+        <v>18.93199554069119</v>
       </c>
       <c r="F10" t="n">
-        <v>15.48650568181818</v>
+        <v>17.90838068181818</v>
       </c>
       <c r="G10" t="n">
-        <v>13.53700943864878</v>
+        <v>15.73770491803279</v>
       </c>
       <c r="H10" t="n">
-        <v>10.54590570719603</v>
+        <v>13.13275434243176</v>
       </c>
     </row>
   </sheetData>
